--- a/biology/Zoologie/Artace/Artace.xlsx
+++ b/biology/Zoologie/Artace/Artace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artace est un genre de lépidoptères (papillons) de la famille des Lasiocampidae. Ce genre est parfois classé dans la sous-famille des Poecilocampinae. Ces papillons sont familièrement appelés des « papillons caniches ».
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 juin 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 juin 2016) :
 Artace aemula Draudt, 1927
 Artace albicans Walker, 1855
 Artace anula Schaus, 1892
@@ -542,11 +556,11 @@
 Artace schreiteria Schaus, 1936
 Artace sisoes Schaus, 1924
 Artace thelma Schaus, 1936
-Selon BioLib                    (17 juin 2016)[2] :
+Selon BioLib                    (17 juin 2016) :
 Artace albicans Walker, 1855
 Artace colaria Franclemont, 1973
 Artace cribraria (Ljungh, 1825)
-Selon NCBI  (17 juin 2016)[3] :
+Selon NCBI  (17 juin 2016) :
 Artace cribraria</t>
         </is>
       </c>
@@ -575,9 +589,11 @@
           <t>Papillon caniche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2009, la photo d'un papillon blanc velu aux grands yeux noirs, identifié provisoirement comme « Artace sp. peut-être Artace cribaria », est momentanément un mème sur internet. Dans les médias relayant l'anecdote,  il est rebaptisé « papillon caniche du Venezuela », et cette nouvelle espèce potentielle, dont la photo est sous copyright, est associée à des illustrations plus ou moins fantaisistes. On croise notamment Bombyx mori - le Bombyx du mûrier du ver à soie - ou Diaphora mendica, et même une figurine en feutre. En 2016 une thèse le prend comme exemple d'information magnifiée et de falsification de l'illustration qui tendent à donner une perception distordue de la réalité sur Internet[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, la photo d'un papillon blanc velu aux grands yeux noirs, identifié provisoirement comme « Artace sp. peut-être Artace cribaria », est momentanément un mème sur internet. Dans les médias relayant l'anecdote,  il est rebaptisé « papillon caniche du Venezuela », et cette nouvelle espèce potentielle, dont la photo est sous copyright, est associée à des illustrations plus ou moins fantaisistes. On croise notamment Bombyx mori - le Bombyx du mûrier du ver à soie - ou Diaphora mendica, et même une figurine en feutre. En 2016 une thèse le prend comme exemple d'information magnifiée et de falsification de l'illustration qui tendent à donner une perception distordue de la réalité sur Internet.
 </t>
         </is>
       </c>
@@ -606,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la + en) Walker, 1855 : List of the specimens of lepidopterous insects in the collection of the British Museum. vol. 6, p. 1491 (texte intégral).</t>
         </is>
